--- a/webapi.xlsx
+++ b/webapi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lemon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2E56F4-07BC-43BE-A2F4-F844C5FE74C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E16B728-B402-420D-A36F-736A5D31B4D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{B91ED7C8-286C-414E-91EF-42206D1ECAFA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,18 @@
   </si>
   <si>
     <t>/modify/modifys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 陈俊良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈俊良</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6BDF58-0C82-49E5-98A5-6194A834AA2C}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -589,7 +601,7 @@
     <col min="6" max="6" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,8 +620,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -631,8 +646,11 @@
       <c r="G2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -654,8 +672,11 @@
       <c r="G4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -666,7 +687,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -677,7 +698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -691,7 +712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -702,7 +723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -713,7 +734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -729,8 +750,11 @@
       <c r="G13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -746,8 +770,11 @@
       <c r="G15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>

--- a/webapi.xlsx
+++ b/webapi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lemon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E16B728-B402-420D-A36F-736A5D31B4D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E69D9A-7B0D-4ADC-A220-68701912C275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{B91ED7C8-286C-414E-91EF-42206D1ECAFA}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,14 +66,6 @@
   </si>
   <si>
     <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string err</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -134,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>评论</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,15 +193,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实现人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 陈俊良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈俊良</t>
+    <t>前后端连接已实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前后端连接已实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端已实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6BDF58-0C82-49E5-98A5-6194A834AA2C}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -599,9 +591,10 @@
     <col min="4" max="4" width="48" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
     <col min="6" max="6" width="27.25" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -620,11 +613,8 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -635,157 +625,175 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G13" t="s">
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>35</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
